--- a/php/exemplo.xlsx
+++ b/php/exemplo.xlsx
@@ -14,11 +14,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,8 +46,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -51,6 +58,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Author 1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Author 1 Institution</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Author 2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Author 2 Institution</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Author 3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Author 3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Author 3 Institution</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
--- a/php/exemplo.xlsx
+++ b/php/exemplo.xlsx
@@ -111,6 +111,33 @@
         </is>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>137463</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>COMPREHENDING THE TRANSPORT PROPERTIES OF PROTIC IONIC LIQUIDS USING NMR</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Poster Presentation</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Andrea Mele;</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Department of Chemistry, Materials and Chemical Engineering “Giulio Natta” / Politecnico di Milano</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/php/exemplo.xlsx
+++ b/php/exemplo.xlsx
@@ -67,108 +67,78 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Author 2 Institution</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>Author 3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Author 3 Institution</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Author 1</t>
+          <t>Author 4</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Author 1 Institution</t>
+          <t>Author 4 Institution</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Author 2</t>
+          <t>Author 5</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Author 2 Institution</t>
+          <t>Author 5 Institution</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Author 3</t>
+          <t>Author 6</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Author 3 Institution</t>
+          <t>Author 6 Institution</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Author 4</t>
+          <t>Author 7</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Author 4 Institution</t>
+          <t>Author 7 Institution</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Author 5</t>
+          <t>Author 8</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Author 5 Institution</t>
+          <t>Author 8 Institution</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Author 6</t>
+          <t>Author 9</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Author 6 Institution</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Author 7</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Author 7 Institution</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Author 8</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Author 8 Institution</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Author 9</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Author 9 Institution</t>
         </is>

--- a/php/exemplo.xlsx
+++ b/php/exemplo.xlsx
@@ -67,78 +67,108 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Author 1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Author 1 Institution</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Author 2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Author 2 Institution</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Author 3</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Author 3 Institution</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Author 4</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Author 4 Institution</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Author 5</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Author 5 Institution</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Author 6</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Author 6 Institution</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Author 7</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Author 7 Institution</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Author 8</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Author 8 Institution</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Author 9</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Author 9 Institution</t>
         </is>
